--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.57997054729036</v>
+        <v>138.6667358209788</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.2497088609925</v>
+        <v>189.729945494809</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2462278750033</v>
+        <v>171.6223857844889</v>
       </c>
       <c r="AD2" t="n">
-        <v>99579.97054729036</v>
+        <v>138666.7358209788</v>
       </c>
       <c r="AE2" t="n">
-        <v>136249.7088609925</v>
+        <v>189729.945494809</v>
       </c>
       <c r="AF2" t="n">
         <v>1.955783841306782e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>123246.2278750033</v>
+        <v>171622.3857844889</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.5607971126819</v>
+        <v>138.4350726268614</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.541033753032</v>
+        <v>189.4129736923589</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.8458894790958</v>
+        <v>171.3356653259918</v>
       </c>
       <c r="AD3" t="n">
-        <v>89560.7971126819</v>
+        <v>138435.0726268614</v>
       </c>
       <c r="AE3" t="n">
-        <v>122541.033753032</v>
+        <v>189412.9736923589</v>
       </c>
       <c r="AF3" t="n">
         <v>1.971419263522256e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>110845.8894790958</v>
+        <v>171335.6653259918</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.56543025188347</v>
+        <v>137.220307044611</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.8615700704586</v>
+        <v>187.7508778310496</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.9905711023725</v>
+        <v>169.8321975609191</v>
       </c>
       <c r="AD2" t="n">
-        <v>98565.43025188347</v>
+        <v>137220.307044611</v>
       </c>
       <c r="AE2" t="n">
-        <v>134861.5700704586</v>
+        <v>187750.8778310496</v>
       </c>
       <c r="AF2" t="n">
         <v>2.105816032781997e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>121990.5711023725</v>
+        <v>169832.1975609191</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.6560995963767</v>
+        <v>152.3320230685234</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.5633366858432</v>
+        <v>208.4273943768152</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.7664147285028</v>
+        <v>188.5353763872367</v>
       </c>
       <c r="AD2" t="n">
-        <v>105656.0995963767</v>
+        <v>152332.0230685234</v>
       </c>
       <c r="AE2" t="n">
-        <v>144563.3366858432</v>
+        <v>208427.3943768152</v>
       </c>
       <c r="AF2" t="n">
         <v>2.573247585653357e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH2" t="n">
-        <v>130766.4147285028</v>
+        <v>188535.3763872366</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.60944169383741</v>
+        <v>134.5738876265332</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.1853002332163</v>
+        <v>184.1299300314527</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.5697207022274</v>
+        <v>166.5568279372824</v>
       </c>
       <c r="AD2" t="n">
-        <v>96609.44169383741</v>
+        <v>134573.8876265332</v>
       </c>
       <c r="AE2" t="n">
-        <v>132185.3002332163</v>
+        <v>184129.9300314526</v>
       </c>
       <c r="AF2" t="n">
         <v>2.422578939938963e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.564814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>119569.7207022274</v>
+        <v>166556.8279372824</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.3263801323253</v>
+        <v>161.5152762805062</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.7946411377892</v>
+        <v>220.9923265579822</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.7349420538117</v>
+        <v>199.9011290760302</v>
       </c>
       <c r="AD2" t="n">
-        <v>115326.3801323253</v>
+        <v>161515.2762805062</v>
       </c>
       <c r="AE2" t="n">
-        <v>157794.6411377892</v>
+        <v>220992.3265579822</v>
       </c>
       <c r="AF2" t="n">
         <v>2.640307592235037e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>142734.9420538117</v>
+        <v>199901.1290760302</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.77375823435251</v>
+        <v>137.5421532219547</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.1466136068545</v>
+        <v>188.1912419697422</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.248410483716</v>
+        <v>170.23053396427</v>
       </c>
       <c r="AD2" t="n">
-        <v>98773.75823435251</v>
+        <v>137542.1532219546</v>
       </c>
       <c r="AE2" t="n">
-        <v>135146.6136068545</v>
+        <v>188191.2419697422</v>
       </c>
       <c r="AF2" t="n">
         <v>2.070452308762019e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.090277777777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>122248.410483716</v>
+        <v>170230.53396427</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.229587129743</v>
+        <v>180.265212082028</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.3446458503072</v>
+        <v>246.6468159103991</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.9917533341224</v>
+        <v>223.1071899709625</v>
       </c>
       <c r="AD2" t="n">
-        <v>125229.587129743</v>
+        <v>180265.212082028</v>
       </c>
       <c r="AE2" t="n">
-        <v>171344.6458503072</v>
+        <v>246646.8159103991</v>
       </c>
       <c r="AF2" t="n">
         <v>2.64285051783506e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>154991.7533341224</v>
+        <v>223107.1899709625</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.66611692781878</v>
+        <v>135.952572254486</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.6310899055701</v>
+        <v>186.0163071626898</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.8775262374308</v>
+        <v>168.2631718826618</v>
       </c>
       <c r="AD2" t="n">
-        <v>97666.11692781877</v>
+        <v>135952.572254486</v>
       </c>
       <c r="AE2" t="n">
-        <v>133631.0899055701</v>
+        <v>186016.3071626898</v>
       </c>
       <c r="AF2" t="n">
         <v>2.24118952758151e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120877.5262374308</v>
+        <v>168263.1718826618</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.15018826315277</v>
+        <v>136.6872301891676</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.2934176622939</v>
+        <v>187.0214985597412</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.4766423626359</v>
+        <v>169.172429223574</v>
       </c>
       <c r="AD2" t="n">
-        <v>98150.18826315277</v>
+        <v>136687.2301891676</v>
       </c>
       <c r="AE2" t="n">
-        <v>134293.4176622939</v>
+        <v>187021.4985597412</v>
       </c>
       <c r="AF2" t="n">
         <v>2.15948287193608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>121476.6423626359</v>
+        <v>169172.429223574</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.74764456630835</v>
+        <v>138.7316646656882</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.4791278510685</v>
+        <v>189.8187840045988</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.4537514386581</v>
+        <v>171.70274567159</v>
       </c>
       <c r="AD2" t="n">
-        <v>99747.64456630836</v>
+        <v>138731.6646656882</v>
       </c>
       <c r="AE2" t="n">
-        <v>136479.1278510685</v>
+        <v>189818.7840045988</v>
       </c>
       <c r="AF2" t="n">
         <v>1.961769601545949e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.171296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>123453.7514386581</v>
+        <v>171702.74567159</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.73327873063019</v>
+        <v>138.71729883001</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.4594718809177</v>
+        <v>189.799128034448</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.4359714067111</v>
+        <v>171.6849656396431</v>
       </c>
       <c r="AD3" t="n">
-        <v>99733.27873063019</v>
+        <v>138717.29883001</v>
       </c>
       <c r="AE3" t="n">
-        <v>136459.4718809177</v>
+        <v>189799.128034448</v>
       </c>
       <c r="AF3" t="n">
         <v>1.970532940320991e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.136574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>123435.9714067111</v>
+        <v>171684.9656396431</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.00067293043365</v>
+        <v>135.012321079553</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.720600071031</v>
+        <v>184.7298140241927</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.0539322748193</v>
+        <v>167.099459843698</v>
       </c>
       <c r="AD2" t="n">
-        <v>97000.67293043365</v>
+        <v>135012.321079553</v>
       </c>
       <c r="AE2" t="n">
-        <v>132720.600071031</v>
+        <v>184729.8140241927</v>
       </c>
       <c r="AF2" t="n">
         <v>2.35311166695406e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.483796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>120053.9322748193</v>
+        <v>167099.459843698</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.8112176135511</v>
+        <v>143.3817966992142</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.7755760002651</v>
+        <v>196.1812998022126</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.958398220636</v>
+        <v>177.4580318913285</v>
       </c>
       <c r="AD2" t="n">
-        <v>105811.2176135511</v>
+        <v>143381.7966992142</v>
       </c>
       <c r="AE2" t="n">
-        <v>144775.5760002651</v>
+        <v>196181.2998022126</v>
       </c>
       <c r="AF2" t="n">
         <v>2.521422502305316e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.00462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>130958.3982206361</v>
+        <v>177458.0318913285</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.6747235411358</v>
+        <v>152.2045606293967</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.5888187886931</v>
+        <v>208.2529946443561</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.789464855221</v>
+        <v>188.3776211204718</v>
       </c>
       <c r="AD2" t="n">
-        <v>105674.7235411358</v>
+        <v>152204.5606293967</v>
       </c>
       <c r="AE2" t="n">
-        <v>144588.8187886931</v>
+        <v>208252.9946443561</v>
       </c>
       <c r="AF2" t="n">
         <v>2.616850650110308e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>130789.464855221</v>
+        <v>188377.6211204718</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.2604140907455</v>
+        <v>199.9335524149548</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.7517069960545</v>
+        <v>273.5579068598319</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.7831230301801</v>
+        <v>247.4499241701434</v>
       </c>
       <c r="AD2" t="n">
-        <v>145260.4140907455</v>
+        <v>199933.5524149548</v>
       </c>
       <c r="AE2" t="n">
-        <v>198751.7069960544</v>
+        <v>273557.9068598319</v>
       </c>
       <c r="AF2" t="n">
         <v>2.566278009444726e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.14814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>179783.1230301801</v>
+        <v>247449.9241701434</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.9259949343965</v>
+        <v>136.3404158955603</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.9866664591781</v>
+        <v>186.5469719428612</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.1991670638174</v>
+        <v>168.7431907610065</v>
       </c>
       <c r="AD2" t="n">
-        <v>97925.9949343965</v>
+        <v>136340.4158955603</v>
       </c>
       <c r="AE2" t="n">
-        <v>133986.6664591781</v>
+        <v>186546.9719428612</v>
       </c>
       <c r="AF2" t="n">
         <v>2.196199885104805e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.252314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>121199.1670638174</v>
+        <v>168743.1907610065</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.3223558563962</v>
+        <v>138.200351220531</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.8972290757533</v>
+        <v>189.0918175090401</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.9273882657587</v>
+        <v>171.0451598380633</v>
       </c>
       <c r="AD2" t="n">
-        <v>99322.3558563962</v>
+        <v>138200.351220531</v>
       </c>
       <c r="AE2" t="n">
-        <v>135897.2290757533</v>
+        <v>189091.8175090401</v>
       </c>
       <c r="AF2" t="n">
         <v>2.009296873312795e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.148148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>122927.3882657587</v>
+        <v>171045.1598380634</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.39706596981802</v>
+        <v>138.2750613339527</v>
       </c>
       <c r="AB3" t="n">
-        <v>135.9994507489145</v>
+        <v>189.1940391822014</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.0198540459025</v>
+        <v>171.1376256182072</v>
       </c>
       <c r="AD3" t="n">
-        <v>99397.06596981801</v>
+        <v>138275.0613339528</v>
       </c>
       <c r="AE3" t="n">
-        <v>135999.4507489145</v>
+        <v>189194.0391822014</v>
       </c>
       <c r="AF3" t="n">
         <v>2.00786778592068e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.159722222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>123019.8540459025</v>
+        <v>171137.6256182072</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.9878848170819</v>
+        <v>258.1920852900577</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.4768292129988</v>
+        <v>353.2698017247507</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.1899177934573</v>
+        <v>319.5542276654205</v>
       </c>
       <c r="AD2" t="n">
-        <v>185987.8848170819</v>
+        <v>258192.0852900577</v>
       </c>
       <c r="AE2" t="n">
-        <v>254476.8292129988</v>
+        <v>353269.8017247507</v>
       </c>
       <c r="AF2" t="n">
         <v>2.323661330223356e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>230189.9177934573</v>
+        <v>319554.2276654205</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.4678462106212</v>
+        <v>143.6492200944124</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9915630463282</v>
+        <v>196.5472002894101</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.394473520544</v>
+        <v>177.7890113495726</v>
       </c>
       <c r="AD2" t="n">
-        <v>96467.84621062121</v>
+        <v>143649.2200944124</v>
       </c>
       <c r="AE2" t="n">
-        <v>131991.5630463282</v>
+        <v>196547.2002894101</v>
       </c>
       <c r="AF2" t="n">
         <v>2.46730963665167e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.773148148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>119394.473520544</v>
+        <v>177789.0113495726</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.23163351873576</v>
+        <v>135.3841055075196</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.0366105372078</v>
+        <v>185.2385058805077</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.3397831456278</v>
+        <v>167.5596028632</v>
       </c>
       <c r="AD2" t="n">
-        <v>97231.63351873576</v>
+        <v>135384.1055075196</v>
       </c>
       <c r="AE2" t="n">
-        <v>133036.6105372078</v>
+        <v>185238.5058805078</v>
       </c>
       <c r="AF2" t="n">
         <v>2.305132690530878e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.368055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>120339.7831456278</v>
+        <v>167559.6028632</v>
       </c>
     </row>
   </sheetData>
